--- a/cepi_results/cepi_results.xlsx
+++ b/cepi_results/cepi_results.xlsx
@@ -135,10 +135,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="4">
@@ -149,7 +149,7 @@
         <v>0.39</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="5">
@@ -157,7 +157,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
         <v>0.73</v>
@@ -168,7 +168,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="n">
         <v>0.73</v>
@@ -182,7 +182,7 @@
         <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -204,7 +204,7 @@
         <v>0.39</v>
       </c>
       <c r="C9" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
@@ -237,7 +237,7 @@
         <v>0.38</v>
       </c>
       <c r="C12" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13">
@@ -248,7 +248,7 @@
         <v>0.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -280,10 +280,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -291,10 +291,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C3" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -302,10 +302,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -313,10 +313,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -324,10 +324,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="C6" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -335,10 +335,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="C7" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -346,10 +346,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C8" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="9">
@@ -357,10 +357,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C9" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="10">
@@ -368,10 +368,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C10" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="11">
@@ -379,10 +379,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12">
@@ -390,10 +390,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="13">
@@ -401,10 +401,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="C13" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>

--- a/cepi_results/cepi_results.xlsx
+++ b/cepi_results/cepi_results.xlsx
@@ -135,10 +135,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="C3" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -149,7 +149,7 @@
         <v>0.39</v>
       </c>
       <c r="C4" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -157,10 +157,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="C5" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -168,10 +168,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="C6" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7">
@@ -182,7 +182,7 @@
         <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8">
@@ -190,10 +190,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9">
@@ -201,10 +201,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10">
@@ -215,7 +215,7 @@
         <v>0.39</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11">
@@ -223,10 +223,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="C11" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
@@ -237,7 +237,7 @@
         <v>0.38</v>
       </c>
       <c r="C12" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
@@ -245,10 +245,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="C13" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -280,7 +280,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C2" t="n">
         <v>0.68</v>
@@ -291,10 +291,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="4">
@@ -302,10 +302,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C4" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -313,7 +313,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C5" t="n">
         <v>0.71</v>
@@ -335,7 +335,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="C7" t="n">
         <v>0.7</v>
@@ -371,7 +371,7 @@
         <v>0.38</v>
       </c>
       <c r="C10" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="11">

--- a/cepi_results/cepi_results.xlsx
+++ b/cepi_results/cepi_results.xlsx
@@ -124,10 +124,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -135,10 +135,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -146,10 +146,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -157,10 +157,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="C5" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -168,10 +168,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="C6" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
@@ -179,10 +179,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C7" t="n">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="8">
@@ -190,10 +190,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
@@ -201,10 +201,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="C9" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -212,10 +212,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="C10" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
@@ -223,10 +223,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="12">
@@ -234,10 +234,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="13">
@@ -245,10 +245,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="C13" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -280,10 +280,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C2" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -291,10 +291,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C3" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -302,10 +302,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C4" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -313,10 +313,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="C5" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -324,10 +324,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="C6" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -335,10 +335,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
@@ -346,10 +346,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="C8" t="n">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -357,10 +357,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="C9" t="n">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
@@ -368,10 +368,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="C10" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="11">
@@ -379,10 +379,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C11" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -390,10 +390,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="C12" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13">
@@ -401,10 +401,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="C13" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
